--- a/meal/static/meal/sheet/form.xlsx
+++ b/meal/static/meal/sheet/form.xlsx
@@ -1590,60 +1590,57 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="15" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="15" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="15" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="15" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="6" borderId="8" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="5" borderId="8" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="9" borderId="8" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="9" borderId="15" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="9" borderId="14" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="9" borderId="13" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="15" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="15" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="5" borderId="8" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="6" borderId="8" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="15" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1658,16 +1655,19 @@
     <xf numFmtId="176" fontId="7" fillId="7" borderId="6" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="16" fillId="9" borderId="13" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="16" fillId="9" borderId="14" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="16" fillId="9" borderId="8" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="16" fillId="9" borderId="15" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2006,7 +2006,7 @@
   <dimension ref="A1:AJ165"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -2024,11 +2024,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
       <c r="D1" s="22"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
@@ -2074,37 +2074,37 @@
         <v>24</v>
       </c>
       <c r="D2" s="23"/>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="69"/>
-      <c r="G2" s="72" t="e">
+      <c r="F2" s="78"/>
+      <c r="G2" s="79" t="e">
         <f>SUM(,G6,G8,G10,G12,G14,G16,G18,G20)</f>
         <v>#N/A</v>
       </c>
-      <c r="H2" s="69" t="s">
+      <c r="H2" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="69"/>
-      <c r="V2" s="69"/>
-      <c r="W2" s="69"/>
-      <c r="X2" s="69"/>
-      <c r="Y2" s="69"/>
-      <c r="Z2" s="69"/>
-      <c r="AA2" s="69"/>
-      <c r="AB2" s="69"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="78"/>
+      <c r="X2" s="78"/>
+      <c r="Y2" s="78"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="78"/>
+      <c r="AB2" s="78"/>
       <c r="AC2" s="13"/>
       <c r="AD2" s="13"/>
       <c r="AE2" s="13"/>
@@ -2115,7 +2115,7 @@
       <c r="AJ2" s="13"/>
     </row>
     <row r="3" spans="1:36" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="74" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="47" t="s">
@@ -2125,30 +2125,30 @@
         <v>1595.0000000000002</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="69"/>
-      <c r="V3" s="69"/>
-      <c r="W3" s="69"/>
-      <c r="X3" s="69"/>
-      <c r="Y3" s="69"/>
-      <c r="Z3" s="69"/>
-      <c r="AA3" s="69"/>
-      <c r="AB3" s="69"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="78"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="78"/>
+      <c r="Z3" s="78"/>
+      <c r="AA3" s="78"/>
+      <c r="AB3" s="78"/>
       <c r="AC3" s="13"/>
       <c r="AD3" s="13"/>
       <c r="AE3" s="13"/>
@@ -2176,41 +2176,41 @@
       <c r="G4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="70">
+      <c r="H4" s="80">
         <v>44347</v>
       </c>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70">
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80">
         <v>44348</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70">
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80">
         <v>44349</v>
       </c>
-      <c r="O4" s="70"/>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="70">
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80">
         <v>44350</v>
       </c>
-      <c r="R4" s="70"/>
-      <c r="S4" s="70"/>
-      <c r="T4" s="70">
+      <c r="R4" s="80"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="80">
         <v>44351</v>
       </c>
-      <c r="U4" s="70"/>
-      <c r="V4" s="70"/>
-      <c r="W4" s="70">
+      <c r="U4" s="80"/>
+      <c r="V4" s="80"/>
+      <c r="W4" s="80">
         <v>44352</v>
       </c>
-      <c r="X4" s="70"/>
-      <c r="Y4" s="70"/>
-      <c r="Z4" s="70">
+      <c r="X4" s="80"/>
+      <c r="Y4" s="80"/>
+      <c r="Z4" s="80">
         <v>44353</v>
       </c>
-      <c r="AA4" s="70"/>
-      <c r="AB4" s="70"/>
+      <c r="AA4" s="80"/>
+      <c r="AB4" s="80"/>
       <c r="AC4" s="13"/>
       <c r="AD4" s="13"/>
       <c r="AE4" s="13"/>
@@ -2229,10 +2229,10 @@
         <v>1771.0000000000002</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="88" t="s">
+      <c r="F5" s="72" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="38">
@@ -2320,8 +2320,8 @@
         <v>1771.0000000000002</v>
       </c>
       <c r="D6" s="24"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="89"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="38" t="e">
         <f>SUM(H6:AB6)</f>
         <v>#N/A</v>
@@ -2428,10 +2428,10 @@
         <v>2475</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="67" t="s">
+      <c r="E7" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="69" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="38">
@@ -2511,7 +2511,7 @@
       <c r="AJ7" s="13"/>
     </row>
     <row r="8" spans="1:36" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="65"/>
+      <c r="A8" s="75"/>
       <c r="B8" s="47" t="s">
         <v>31</v>
       </c>
@@ -2519,8 +2519,8 @@
         <v>2552</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="91"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="70"/>
       <c r="G8" s="38" t="e">
         <f>SUM(H8:AB8)</f>
         <v>#N/A</v>
@@ -2619,7 +2619,7 @@
       <c r="AJ8" s="13"/>
     </row>
     <row r="9" spans="1:36" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="76" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="47" t="s">
@@ -2629,10 +2629,10 @@
         <v>616</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="73" t="s">
+      <c r="E9" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="88" t="s">
+      <c r="F9" s="72" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="40">
@@ -2720,8 +2720,8 @@
         <v>616</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="89"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="73"/>
       <c r="G10" s="40" t="e">
         <f>SUM(H10:AB10)</f>
         <v>#N/A</v>
@@ -2828,10 +2828,10 @@
         <v>671</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="67" t="s">
+      <c r="E11" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="90" t="s">
+      <c r="F11" s="69" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="38">
@@ -2919,8 +2919,8 @@
         <v>671</v>
       </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="91"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="70"/>
       <c r="G12" s="38" t="e">
         <f>SUM(H12:AB12)</f>
         <v>#N/A</v>
@@ -3027,10 +3027,10 @@
         <v>671</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="73" t="s">
+      <c r="E13" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="88" t="s">
+      <c r="F13" s="72" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="40">
@@ -3118,8 +3118,8 @@
         <v>671</v>
       </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="89"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="73"/>
       <c r="G14" s="40" t="e">
         <f>SUM(H14:AB14)</f>
         <v>#N/A</v>
@@ -3226,11 +3226,11 @@
         <v>891.00000000000011</v>
       </c>
       <c r="D15" s="6"/>
-      <c r="E15" s="67" t="s">
+      <c r="E15" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="90" t="s">
-        <v>19</v>
+      <c r="F15" s="69" t="s">
+        <v>215</v>
       </c>
       <c r="G15" s="38">
         <f>7-COUNTIF(H15:AB15,"결식")</f>
@@ -3317,8 +3317,8 @@
         <v>891.00000000000011</v>
       </c>
       <c r="D16" s="6"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="91"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="70"/>
       <c r="G16" s="38" t="e">
         <f>SUM(H16:AB16)</f>
         <v>#N/A</v>
@@ -3425,11 +3425,11 @@
         <v>891.00000000000011</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="73" t="s">
+      <c r="E17" s="71" t="s">
         <v>200</v>
       </c>
-      <c r="F17" s="73" t="s">
-        <v>215</v>
+      <c r="F17" s="71" t="s">
+        <v>19</v>
       </c>
       <c r="G17" s="40">
         <f>7-COUNTIF(H17:AB17,"결식")</f>
@@ -3516,8 +3516,8 @@
         <v>1342</v>
       </c>
       <c r="D18" s="6"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
       <c r="G18" s="40" t="e">
         <f>SUM(H18:AB18)</f>
         <v>#N/A</v>
@@ -3624,10 +3624,10 @@
         <v>1342</v>
       </c>
       <c r="D19" s="6"/>
-      <c r="E19" s="67" t="s">
+      <c r="E19" s="68" t="s">
         <v>201</v>
       </c>
-      <c r="F19" s="67" t="s">
+      <c r="F19" s="68" t="s">
         <v>216</v>
       </c>
       <c r="G19" s="38">
@@ -3715,8 +3715,8 @@
         <v>1342</v>
       </c>
       <c r="D20" s="6"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
       <c r="G20" s="38" t="e">
         <f>SUM(H20:AB20)</f>
         <v>#N/A</v>
@@ -4229,7 +4229,7 @@
       <c r="AD30" s="21"/>
     </row>
     <row r="31" spans="1:36" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="65"/>
+      <c r="A31" s="75"/>
       <c r="B31" s="47" t="s">
         <v>55</v>
       </c>
@@ -4265,7 +4265,7 @@
       <c r="AD31" s="21"/>
     </row>
     <row r="32" spans="1:36" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="68" t="s">
+      <c r="A32" s="74" t="s">
         <v>56</v>
       </c>
       <c r="B32" s="49" t="s">
@@ -4587,7 +4587,7 @@
       <c r="AD40" s="21"/>
     </row>
     <row r="41" spans="1:30" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="65"/>
+      <c r="A41" s="75"/>
       <c r="B41" s="47" t="s">
         <v>65</v>
       </c>
@@ -4602,7 +4602,7 @@
       <c r="AD41" s="21"/>
     </row>
     <row r="42" spans="1:30" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="68" t="s">
+      <c r="A42" s="74" t="s">
         <v>66</v>
       </c>
       <c r="B42" s="47" t="s">
@@ -4702,7 +4702,7 @@
       <c r="AC48" s="12"/>
     </row>
     <row r="49" spans="1:29" ht="20.100000000000001" customHeight="1">
-      <c r="A49" s="65"/>
+      <c r="A49" s="75"/>
       <c r="B49" s="47" t="s">
         <v>74</v>
       </c>
@@ -4716,7 +4716,7 @@
       <c r="AC49" s="12"/>
     </row>
     <row r="50" spans="1:29" ht="20.100000000000001" customHeight="1">
-      <c r="A50" s="64" t="s">
+      <c r="A50" s="76" t="s">
         <v>75</v>
       </c>
       <c r="B50" s="60" t="s">
@@ -5031,7 +5031,7 @@
       <c r="AC71" s="12"/>
     </row>
     <row r="72" spans="1:29" ht="20.100000000000001" customHeight="1">
-      <c r="A72" s="65"/>
+      <c r="A72" s="75"/>
       <c r="B72" s="61" t="s">
         <v>205</v>
       </c>
@@ -5045,7 +5045,7 @@
       <c r="AC72" s="12"/>
     </row>
     <row r="73" spans="1:29" ht="20.100000000000001" customHeight="1">
-      <c r="A73" s="62" t="s">
+      <c r="A73" s="81" t="s">
         <v>98</v>
       </c>
       <c r="B73" s="47" t="s">
@@ -5075,7 +5075,7 @@
       <c r="AC74" s="12"/>
     </row>
     <row r="75" spans="1:29" ht="20.100000000000001" customHeight="1">
-      <c r="A75" s="64" t="s">
+      <c r="A75" s="76" t="s">
         <v>101</v>
       </c>
       <c r="B75" s="47" t="s">
@@ -5483,7 +5483,7 @@
       <c r="AC103" s="12"/>
     </row>
     <row r="104" spans="1:29" ht="20.100000000000001" customHeight="1">
-      <c r="A104" s="65"/>
+      <c r="A104" s="75"/>
       <c r="B104" s="47" t="s">
         <v>131</v>
       </c>
@@ -5513,7 +5513,7 @@
       <c r="AC105" s="12"/>
     </row>
     <row r="106" spans="1:29" ht="20.100000000000001" customHeight="1">
-      <c r="A106" s="64" t="s">
+      <c r="A106" s="76" t="s">
         <v>134</v>
       </c>
       <c r="B106" s="47" t="s">
@@ -5669,7 +5669,7 @@
       <c r="AC116" s="12"/>
     </row>
     <row r="117" spans="1:29" ht="20.100000000000001" customHeight="1">
-      <c r="A117" s="65"/>
+      <c r="A117" s="75"/>
       <c r="B117" s="47" t="s">
         <v>146</v>
       </c>
@@ -5683,7 +5683,7 @@
       <c r="AC117" s="12"/>
     </row>
     <row r="118" spans="1:29" ht="20.100000000000001" customHeight="1">
-      <c r="A118" s="66" t="s">
+      <c r="A118" s="82" t="s">
         <v>147</v>
       </c>
       <c r="B118" s="47" t="s">
@@ -5847,7 +5847,7 @@
       <c r="D131" s="25"/>
     </row>
     <row r="132" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A132" s="65"/>
+      <c r="A132" s="75"/>
       <c r="B132" s="47" t="s">
         <v>161</v>
       </c>
@@ -5857,7 +5857,7 @@
       <c r="D132" s="25"/>
     </row>
     <row r="133" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A133" s="62" t="s">
+      <c r="A133" s="81" t="s">
         <v>162</v>
       </c>
       <c r="B133" s="47" t="s">
@@ -5919,7 +5919,7 @@
       <c r="D138" s="6"/>
     </row>
     <row r="139" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A139" s="62" t="s">
+      <c r="A139" s="81" t="s">
         <v>169</v>
       </c>
       <c r="B139" s="47" t="s">
@@ -5981,7 +5981,7 @@
       <c r="D144" s="6"/>
     </row>
     <row r="145" spans="1:29" ht="20.100000000000001" customHeight="1">
-      <c r="A145" s="74" t="s">
+      <c r="A145" s="62" t="s">
         <v>176</v>
       </c>
       <c r="B145" s="47" t="s">
@@ -6023,7 +6023,7 @@
       <c r="D148" s="6"/>
     </row>
     <row r="149" spans="1:29" ht="20.100000000000001" customHeight="1">
-      <c r="A149" s="75"/>
+      <c r="A149" s="64"/>
       <c r="B149" s="50" t="s">
         <v>181</v>
       </c>
@@ -6033,7 +6033,7 @@
       <c r="D149" s="6"/>
     </row>
     <row r="150" spans="1:29" ht="20.100000000000001" customHeight="1">
-      <c r="A150" s="76" t="s">
+      <c r="A150" s="65" t="s">
         <v>182</v>
       </c>
       <c r="B150" s="52" t="s">
@@ -6069,7 +6069,7 @@
       <c r="AB150" s="18"/>
     </row>
     <row r="151" spans="1:29" ht="20.100000000000001" customHeight="1">
-      <c r="A151" s="77"/>
+      <c r="A151" s="66"/>
       <c r="B151" s="52" t="s">
         <v>184</v>
       </c>
@@ -6103,7 +6103,7 @@
       <c r="AB151" s="18"/>
     </row>
     <row r="152" spans="1:29" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A152" s="77"/>
+      <c r="A152" s="66"/>
       <c r="B152" s="52" t="s">
         <v>185</v>
       </c>
@@ -6137,7 +6137,7 @@
       <c r="AC152" s="18"/>
     </row>
     <row r="153" spans="1:29" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A153" s="77"/>
+      <c r="A153" s="66"/>
       <c r="B153" s="52" t="s">
         <v>186</v>
       </c>
@@ -6171,7 +6171,7 @@
       <c r="AC153" s="18"/>
     </row>
     <row r="154" spans="1:29" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A154" s="77"/>
+      <c r="A154" s="66"/>
       <c r="B154" s="52" t="s">
         <v>187</v>
       </c>
@@ -6205,7 +6205,7 @@
       <c r="AC154" s="18"/>
     </row>
     <row r="155" spans="1:29" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A155" s="77"/>
+      <c r="A155" s="66"/>
       <c r="B155" s="52" t="s">
         <v>188</v>
       </c>
@@ -6239,7 +6239,7 @@
       <c r="AC155" s="18"/>
     </row>
     <row r="156" spans="1:29" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A156" s="77"/>
+      <c r="A156" s="66"/>
       <c r="B156" s="52" t="s">
         <v>189</v>
       </c>
@@ -6273,7 +6273,7 @@
       <c r="AC156" s="18"/>
     </row>
     <row r="157" spans="1:29" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A157" s="77"/>
+      <c r="A157" s="66"/>
       <c r="B157" s="52" t="s">
         <v>190</v>
       </c>
@@ -6307,7 +6307,7 @@
       <c r="AC157" s="18"/>
     </row>
     <row r="158" spans="1:29" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A158" s="77"/>
+      <c r="A158" s="66"/>
       <c r="B158" s="52" t="s">
         <v>191</v>
       </c>
@@ -6341,7 +6341,7 @@
       <c r="AC158" s="18"/>
     </row>
     <row r="159" spans="1:29" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A159" s="77"/>
+      <c r="A159" s="66"/>
       <c r="B159" s="52" t="s">
         <v>192</v>
       </c>
@@ -6375,7 +6375,7 @@
       <c r="AC159" s="18"/>
     </row>
     <row r="160" spans="1:29" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A160" s="77"/>
+      <c r="A160" s="66"/>
       <c r="B160" s="52" t="s">
         <v>193</v>
       </c>
@@ -6409,7 +6409,7 @@
       <c r="AC160" s="18"/>
     </row>
     <row r="161" spans="1:29" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A161" s="77"/>
+      <c r="A161" s="66"/>
       <c r="B161" s="52" t="s">
         <v>194</v>
       </c>
@@ -6443,7 +6443,7 @@
       <c r="AC161" s="18"/>
     </row>
     <row r="162" spans="1:29" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A162" s="77"/>
+      <c r="A162" s="66"/>
       <c r="B162" s="52" t="s">
         <v>195</v>
       </c>
@@ -6477,7 +6477,7 @@
       <c r="AC162" s="18"/>
     </row>
     <row r="163" spans="1:29" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A163" s="77"/>
+      <c r="A163" s="66"/>
       <c r="B163" s="52" t="s">
         <v>196</v>
       </c>
@@ -6511,7 +6511,7 @@
       <c r="AC163" s="18"/>
     </row>
     <row r="164" spans="1:29" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A164" s="77"/>
+      <c r="A164" s="66"/>
       <c r="B164" s="52" t="s">
         <v>197</v>
       </c>
@@ -6546,7 +6546,7 @@
       <c r="AC164" s="18"/>
     </row>
     <row r="165" spans="1:29" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A165" s="78"/>
+      <c r="A165" s="67"/>
       <c r="B165" s="52" t="s">
         <v>198</v>
       </c>
@@ -6582,6 +6582,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A139:A144"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A75:A104"/>
+    <mergeCell ref="A106:A117"/>
+    <mergeCell ref="A118:A132"/>
+    <mergeCell ref="A133:A138"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="A50:A72"/>
+    <mergeCell ref="H2:AB3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
     <mergeCell ref="A145:A149"/>
     <mergeCell ref="A150:A165"/>
     <mergeCell ref="E11:E12"/>
@@ -6598,30 +6622,6 @@
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A31"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="H2:AB3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="A42:A49"/>
-    <mergeCell ref="A50:A72"/>
-    <mergeCell ref="A139:A144"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A75:A104"/>
-    <mergeCell ref="A106:A117"/>
-    <mergeCell ref="A118:A132"/>
-    <mergeCell ref="A133:A138"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6681,11 +6681,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
       <c r="D1" s="34"/>
       <c r="E1" s="35"/>
       <c r="F1" s="35"/>
@@ -6694,55 +6694,55 @@
       <c r="I1" s="35"/>
     </row>
     <row r="2" spans="1:39" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="E2" s="85">
+      <c r="E2" s="84">
         <v>44340</v>
       </c>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="85">
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="84">
         <v>44341</v>
       </c>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="85">
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="84">
         <v>44342</v>
       </c>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="87"/>
-      <c r="T2" s="85">
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="84">
         <v>44343</v>
       </c>
-      <c r="U2" s="86"/>
-      <c r="V2" s="86"/>
-      <c r="W2" s="86"/>
-      <c r="X2" s="87"/>
-      <c r="Y2" s="85">
+      <c r="U2" s="85"/>
+      <c r="V2" s="85"/>
+      <c r="W2" s="85"/>
+      <c r="X2" s="86"/>
+      <c r="Y2" s="84">
         <v>44344</v>
       </c>
-      <c r="Z2" s="86"/>
-      <c r="AA2" s="86"/>
-      <c r="AB2" s="86"/>
-      <c r="AC2" s="87"/>
-      <c r="AD2" s="85">
+      <c r="Z2" s="85"/>
+      <c r="AA2" s="85"/>
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="86"/>
+      <c r="AD2" s="84">
         <v>44345</v>
       </c>
-      <c r="AE2" s="86"/>
-      <c r="AF2" s="86"/>
-      <c r="AG2" s="86"/>
-      <c r="AH2" s="87"/>
-      <c r="AI2" s="85">
+      <c r="AE2" s="85"/>
+      <c r="AF2" s="85"/>
+      <c r="AG2" s="85"/>
+      <c r="AH2" s="86"/>
+      <c r="AI2" s="84">
         <v>44346</v>
       </c>
-      <c r="AJ2" s="86"/>
-      <c r="AK2" s="86"/>
-      <c r="AL2" s="86"/>
-      <c r="AM2" s="87"/>
+      <c r="AJ2" s="85"/>
+      <c r="AK2" s="85"/>
+      <c r="AL2" s="85"/>
+      <c r="AM2" s="86"/>
     </row>
     <row r="3" spans="1:39" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="45" t="s">
@@ -6861,7 +6861,7 @@
       </c>
     </row>
     <row r="4" spans="1:39" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="74" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="47" t="s">
@@ -6870,7 +6870,7 @@
       <c r="C4" s="48">
         <v>1595.0000000000002</v>
       </c>
-      <c r="E4" s="68" t="s">
+      <c r="E4" s="74" t="s">
         <v>25</v>
       </c>
       <c r="F4" s="47" t="s">
@@ -6887,7 +6887,7 @@
         <f>G4*H4</f>
         <v>0</v>
       </c>
-      <c r="J4" s="68" t="s">
+      <c r="J4" s="74" t="s">
         <v>25</v>
       </c>
       <c r="K4" s="47" t="s">
@@ -6904,7 +6904,7 @@
         <f>L4*M4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="74" t="s">
         <v>25</v>
       </c>
       <c r="P4" s="47" t="s">
@@ -6921,7 +6921,7 @@
         <f>Q4*R4</f>
         <v>0</v>
       </c>
-      <c r="T4" s="68" t="s">
+      <c r="T4" s="74" t="s">
         <v>25</v>
       </c>
       <c r="U4" s="47" t="s">
@@ -6938,7 +6938,7 @@
         <f>V4*W4</f>
         <v>0</v>
       </c>
-      <c r="Y4" s="68" t="s">
+      <c r="Y4" s="74" t="s">
         <v>25</v>
       </c>
       <c r="Z4" s="47" t="s">
@@ -6955,7 +6955,7 @@
         <f>AA4*AB4</f>
         <v>0</v>
       </c>
-      <c r="AD4" s="68" t="s">
+      <c r="AD4" s="74" t="s">
         <v>25</v>
       </c>
       <c r="AE4" s="47" t="s">
@@ -6972,7 +6972,7 @@
         <f>AF4*AG4</f>
         <v>0</v>
       </c>
-      <c r="AI4" s="68" t="s">
+      <c r="AI4" s="74" t="s">
         <v>25</v>
       </c>
       <c r="AJ4" s="47" t="s">
@@ -7447,14 +7447,14 @@
       </c>
     </row>
     <row r="9" spans="1:39" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="65"/>
+      <c r="A9" s="75"/>
       <c r="B9" s="47" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="48">
         <v>2552</v>
       </c>
-      <c r="E9" s="65"/>
+      <c r="E9" s="75"/>
       <c r="F9" s="47" t="s">
         <v>31</v>
       </c>
@@ -7469,7 +7469,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J9" s="65"/>
+      <c r="J9" s="75"/>
       <c r="K9" s="47" t="s">
         <v>31</v>
       </c>
@@ -7484,7 +7484,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O9" s="65"/>
+      <c r="O9" s="75"/>
       <c r="P9" s="47" t="s">
         <v>31</v>
       </c>
@@ -7499,7 +7499,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T9" s="65"/>
+      <c r="T9" s="75"/>
       <c r="U9" s="47" t="s">
         <v>31</v>
       </c>
@@ -7514,7 +7514,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y9" s="65"/>
+      <c r="Y9" s="75"/>
       <c r="Z9" s="47" t="s">
         <v>31</v>
       </c>
@@ -7529,7 +7529,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AD9" s="65"/>
+      <c r="AD9" s="75"/>
       <c r="AE9" s="47" t="s">
         <v>31</v>
       </c>
@@ -7544,7 +7544,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AI9" s="65"/>
+      <c r="AI9" s="75"/>
       <c r="AJ9" s="47" t="s">
         <v>31</v>
       </c>
@@ -7561,7 +7561,7 @@
       </c>
     </row>
     <row r="10" spans="1:39" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="76" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="47" t="s">
@@ -7570,7 +7570,7 @@
       <c r="C10" s="48">
         <v>616</v>
       </c>
-      <c r="E10" s="64" t="s">
+      <c r="E10" s="76" t="s">
         <v>32</v>
       </c>
       <c r="F10" s="47" t="s">
@@ -7587,7 +7587,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J10" s="64" t="s">
+      <c r="J10" s="76" t="s">
         <v>32</v>
       </c>
       <c r="K10" s="47" t="s">
@@ -7604,7 +7604,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="64" t="s">
+      <c r="O10" s="76" t="s">
         <v>32</v>
       </c>
       <c r="P10" s="47" t="s">
@@ -7621,7 +7621,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T10" s="64" t="s">
+      <c r="T10" s="76" t="s">
         <v>32</v>
       </c>
       <c r="U10" s="47" t="s">
@@ -7638,7 +7638,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y10" s="64" t="s">
+      <c r="Y10" s="76" t="s">
         <v>32</v>
       </c>
       <c r="Z10" s="47" t="s">
@@ -7655,7 +7655,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AD10" s="64" t="s">
+      <c r="AD10" s="76" t="s">
         <v>32</v>
       </c>
       <c r="AE10" s="47" t="s">
@@ -7672,7 +7672,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AI10" s="64" t="s">
+      <c r="AI10" s="76" t="s">
         <v>32</v>
       </c>
       <c r="AJ10" s="47" t="s">
@@ -10085,14 +10085,14 @@
       </c>
     </row>
     <row r="32" spans="1:39" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="65"/>
+      <c r="A32" s="75"/>
       <c r="B32" s="47" t="s">
         <v>55</v>
       </c>
       <c r="C32" s="48">
         <v>2475</v>
       </c>
-      <c r="E32" s="65"/>
+      <c r="E32" s="75"/>
       <c r="F32" s="47" t="s">
         <v>55</v>
       </c>
@@ -10107,7 +10107,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J32" s="65"/>
+      <c r="J32" s="75"/>
       <c r="K32" s="47" t="s">
         <v>55</v>
       </c>
@@ -10122,7 +10122,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O32" s="65"/>
+      <c r="O32" s="75"/>
       <c r="P32" s="47" t="s">
         <v>55</v>
       </c>
@@ -10137,7 +10137,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T32" s="65"/>
+      <c r="T32" s="75"/>
       <c r="U32" s="47" t="s">
         <v>55</v>
       </c>
@@ -10152,7 +10152,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y32" s="65"/>
+      <c r="Y32" s="75"/>
       <c r="Z32" s="47" t="s">
         <v>55</v>
       </c>
@@ -10167,7 +10167,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AD32" s="65"/>
+      <c r="AD32" s="75"/>
       <c r="AE32" s="47" t="s">
         <v>55</v>
       </c>
@@ -10182,7 +10182,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AI32" s="65"/>
+      <c r="AI32" s="75"/>
       <c r="AJ32" s="47" t="s">
         <v>55</v>
       </c>
@@ -10199,7 +10199,7 @@
       </c>
     </row>
     <row r="33" spans="1:39" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="68" t="s">
+      <c r="A33" s="74" t="s">
         <v>56</v>
       </c>
       <c r="B33" s="49" t="s">
@@ -10208,7 +10208,7 @@
       <c r="C33" s="48">
         <v>2211</v>
       </c>
-      <c r="E33" s="68" t="s">
+      <c r="E33" s="74" t="s">
         <v>56</v>
       </c>
       <c r="F33" s="49" t="s">
@@ -10225,7 +10225,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J33" s="68" t="s">
+      <c r="J33" s="74" t="s">
         <v>56</v>
       </c>
       <c r="K33" s="49" t="s">
@@ -10242,7 +10242,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O33" s="68" t="s">
+      <c r="O33" s="74" t="s">
         <v>56</v>
       </c>
       <c r="P33" s="49" t="s">
@@ -10259,7 +10259,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T33" s="68" t="s">
+      <c r="T33" s="74" t="s">
         <v>56</v>
       </c>
       <c r="U33" s="49" t="s">
@@ -10276,7 +10276,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y33" s="68" t="s">
+      <c r="Y33" s="74" t="s">
         <v>56</v>
       </c>
       <c r="Z33" s="49" t="s">
@@ -10293,7 +10293,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AD33" s="68" t="s">
+      <c r="AD33" s="74" t="s">
         <v>56</v>
       </c>
       <c r="AE33" s="49" t="s">
@@ -10310,7 +10310,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AI33" s="68" t="s">
+      <c r="AI33" s="74" t="s">
         <v>56</v>
       </c>
       <c r="AJ33" s="49" t="s">
@@ -11241,14 +11241,14 @@
       </c>
     </row>
     <row r="42" spans="1:39" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="65"/>
+      <c r="A42" s="75"/>
       <c r="B42" s="47" t="s">
         <v>65</v>
       </c>
       <c r="C42" s="48">
         <v>2607</v>
       </c>
-      <c r="E42" s="65"/>
+      <c r="E42" s="75"/>
       <c r="F42" s="47" t="s">
         <v>65</v>
       </c>
@@ -11263,7 +11263,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J42" s="65"/>
+      <c r="J42" s="75"/>
       <c r="K42" s="47" t="s">
         <v>65</v>
       </c>
@@ -11278,7 +11278,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O42" s="65"/>
+      <c r="O42" s="75"/>
       <c r="P42" s="47" t="s">
         <v>65</v>
       </c>
@@ -11293,7 +11293,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T42" s="65"/>
+      <c r="T42" s="75"/>
       <c r="U42" s="47" t="s">
         <v>65</v>
       </c>
@@ -11308,7 +11308,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y42" s="65"/>
+      <c r="Y42" s="75"/>
       <c r="Z42" s="47" t="s">
         <v>65</v>
       </c>
@@ -11323,7 +11323,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AD42" s="65"/>
+      <c r="AD42" s="75"/>
       <c r="AE42" s="47" t="s">
         <v>65</v>
       </c>
@@ -11338,7 +11338,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AI42" s="65"/>
+      <c r="AI42" s="75"/>
       <c r="AJ42" s="47" t="s">
         <v>65</v>
       </c>
@@ -11355,7 +11355,7 @@
       </c>
     </row>
     <row r="43" spans="1:39" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="68" t="s">
+      <c r="A43" s="74" t="s">
         <v>66</v>
       </c>
       <c r="B43" s="47" t="s">
@@ -11364,7 +11364,7 @@
       <c r="C43" s="48">
         <v>1848.0000000000002</v>
       </c>
-      <c r="E43" s="68" t="s">
+      <c r="E43" s="74" t="s">
         <v>66</v>
       </c>
       <c r="F43" s="47" t="s">
@@ -11381,7 +11381,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J43" s="68" t="s">
+      <c r="J43" s="74" t="s">
         <v>66</v>
       </c>
       <c r="K43" s="47" t="s">
@@ -11398,7 +11398,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O43" s="68" t="s">
+      <c r="O43" s="74" t="s">
         <v>66</v>
       </c>
       <c r="P43" s="47" t="s">
@@ -11415,7 +11415,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T43" s="68" t="s">
+      <c r="T43" s="74" t="s">
         <v>66</v>
       </c>
       <c r="U43" s="47" t="s">
@@ -11432,7 +11432,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y43" s="68" t="s">
+      <c r="Y43" s="74" t="s">
         <v>66</v>
       </c>
       <c r="Z43" s="47" t="s">
@@ -11449,7 +11449,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AD43" s="68" t="s">
+      <c r="AD43" s="74" t="s">
         <v>66</v>
       </c>
       <c r="AE43" s="47" t="s">
@@ -11466,7 +11466,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AI43" s="68" t="s">
+      <c r="AI43" s="74" t="s">
         <v>66</v>
       </c>
       <c r="AJ43" s="47" t="s">
@@ -12169,14 +12169,14 @@
       </c>
     </row>
     <row r="50" spans="1:39" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A50" s="65"/>
+      <c r="A50" s="75"/>
       <c r="B50" s="47" t="s">
         <v>74</v>
       </c>
       <c r="C50" s="48">
         <v>1111</v>
       </c>
-      <c r="E50" s="65"/>
+      <c r="E50" s="75"/>
       <c r="F50" s="47" t="s">
         <v>74</v>
       </c>
@@ -12191,7 +12191,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J50" s="65"/>
+      <c r="J50" s="75"/>
       <c r="K50" s="47" t="s">
         <v>74</v>
       </c>
@@ -12206,7 +12206,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O50" s="65"/>
+      <c r="O50" s="75"/>
       <c r="P50" s="47" t="s">
         <v>74</v>
       </c>
@@ -12221,7 +12221,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T50" s="65"/>
+      <c r="T50" s="75"/>
       <c r="U50" s="47" t="s">
         <v>74</v>
       </c>
@@ -12236,7 +12236,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y50" s="65"/>
+      <c r="Y50" s="75"/>
       <c r="Z50" s="47" t="s">
         <v>74</v>
       </c>
@@ -12251,7 +12251,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AD50" s="65"/>
+      <c r="AD50" s="75"/>
       <c r="AE50" s="47" t="s">
         <v>74</v>
       </c>
@@ -12266,7 +12266,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AI50" s="65"/>
+      <c r="AI50" s="75"/>
       <c r="AJ50" s="47" t="s">
         <v>74</v>
       </c>
@@ -12283,7 +12283,7 @@
       </c>
     </row>
     <row r="51" spans="1:39" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A51" s="64" t="s">
+      <c r="A51" s="76" t="s">
         <v>75</v>
       </c>
       <c r="B51" s="47" t="s">
@@ -12292,7 +12292,7 @@
       <c r="C51" s="48">
         <v>847.00000000000011</v>
       </c>
-      <c r="E51" s="64" t="s">
+      <c r="E51" s="76" t="s">
         <v>75</v>
       </c>
       <c r="F51" s="47" t="s">
@@ -12309,7 +12309,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J51" s="64" t="s">
+      <c r="J51" s="76" t="s">
         <v>75</v>
       </c>
       <c r="K51" s="47" t="s">
@@ -12326,7 +12326,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O51" s="64" t="s">
+      <c r="O51" s="76" t="s">
         <v>75</v>
       </c>
       <c r="P51" s="47" t="s">
@@ -12343,7 +12343,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T51" s="64" t="s">
+      <c r="T51" s="76" t="s">
         <v>75</v>
       </c>
       <c r="U51" s="47" t="s">
@@ -12360,7 +12360,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y51" s="64" t="s">
+      <c r="Y51" s="76" t="s">
         <v>75</v>
       </c>
       <c r="Z51" s="47" t="s">
@@ -12377,7 +12377,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AD51" s="64" t="s">
+      <c r="AD51" s="76" t="s">
         <v>75</v>
       </c>
       <c r="AE51" s="47" t="s">
@@ -12394,7 +12394,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AI51" s="64" t="s">
+      <c r="AI51" s="76" t="s">
         <v>75</v>
       </c>
       <c r="AJ51" s="47" t="s">
@@ -14807,14 +14807,14 @@
       </c>
     </row>
     <row r="73" spans="1:39" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A73" s="65"/>
+      <c r="A73" s="75"/>
       <c r="B73" s="47" t="s">
         <v>97</v>
       </c>
       <c r="C73" s="48">
         <v>2475</v>
       </c>
-      <c r="E73" s="65"/>
+      <c r="E73" s="75"/>
       <c r="F73" s="47" t="s">
         <v>97</v>
       </c>
@@ -14829,7 +14829,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J73" s="65"/>
+      <c r="J73" s="75"/>
       <c r="K73" s="47" t="s">
         <v>97</v>
       </c>
@@ -14844,7 +14844,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O73" s="65"/>
+      <c r="O73" s="75"/>
       <c r="P73" s="47" t="s">
         <v>97</v>
       </c>
@@ -14859,7 +14859,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T73" s="65"/>
+      <c r="T73" s="75"/>
       <c r="U73" s="47" t="s">
         <v>97</v>
       </c>
@@ -14874,7 +14874,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y73" s="65"/>
+      <c r="Y73" s="75"/>
       <c r="Z73" s="47" t="s">
         <v>97</v>
       </c>
@@ -14889,7 +14889,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AD73" s="65"/>
+      <c r="AD73" s="75"/>
       <c r="AE73" s="47" t="s">
         <v>97</v>
       </c>
@@ -14904,7 +14904,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AI73" s="65"/>
+      <c r="AI73" s="75"/>
       <c r="AJ73" s="47" t="s">
         <v>97</v>
       </c>
@@ -14921,7 +14921,7 @@
       </c>
     </row>
     <row r="74" spans="1:39" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A74" s="62" t="s">
+      <c r="A74" s="81" t="s">
         <v>98</v>
       </c>
       <c r="B74" s="47" t="s">
@@ -14930,7 +14930,7 @@
       <c r="C74" s="48">
         <v>671</v>
       </c>
-      <c r="E74" s="62" t="s">
+      <c r="E74" s="81" t="s">
         <v>98</v>
       </c>
       <c r="F74" s="47" t="s">
@@ -14947,7 +14947,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J74" s="62" t="s">
+      <c r="J74" s="81" t="s">
         <v>98</v>
       </c>
       <c r="K74" s="47" t="s">
@@ -14964,7 +14964,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O74" s="62" t="s">
+      <c r="O74" s="81" t="s">
         <v>98</v>
       </c>
       <c r="P74" s="47" t="s">
@@ -14981,7 +14981,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T74" s="62" t="s">
+      <c r="T74" s="81" t="s">
         <v>98</v>
       </c>
       <c r="U74" s="47" t="s">
@@ -14998,7 +14998,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y74" s="62" t="s">
+      <c r="Y74" s="81" t="s">
         <v>98</v>
       </c>
       <c r="Z74" s="47" t="s">
@@ -15015,7 +15015,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AD74" s="62" t="s">
+      <c r="AD74" s="81" t="s">
         <v>98</v>
       </c>
       <c r="AE74" s="47" t="s">
@@ -15032,7 +15032,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AI74" s="62" t="s">
+      <c r="AI74" s="81" t="s">
         <v>98</v>
       </c>
       <c r="AJ74" s="47" t="s">
@@ -15165,7 +15165,7 @@
       </c>
     </row>
     <row r="76" spans="1:39" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A76" s="64" t="s">
+      <c r="A76" s="76" t="s">
         <v>101</v>
       </c>
       <c r="B76" s="47" t="s">
@@ -15174,7 +15174,7 @@
       <c r="C76" s="48">
         <v>253.00000000000003</v>
       </c>
-      <c r="E76" s="64" t="s">
+      <c r="E76" s="76" t="s">
         <v>101</v>
       </c>
       <c r="F76" s="47" t="s">
@@ -15191,7 +15191,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J76" s="64" t="s">
+      <c r="J76" s="76" t="s">
         <v>101</v>
       </c>
       <c r="K76" s="47" t="s">
@@ -15208,7 +15208,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O76" s="64" t="s">
+      <c r="O76" s="76" t="s">
         <v>101</v>
       </c>
       <c r="P76" s="47" t="s">
@@ -15225,7 +15225,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T76" s="64" t="s">
+      <c r="T76" s="76" t="s">
         <v>101</v>
       </c>
       <c r="U76" s="47" t="s">
@@ -15242,7 +15242,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y76" s="64" t="s">
+      <c r="Y76" s="76" t="s">
         <v>101</v>
       </c>
       <c r="Z76" s="47" t="s">
@@ -15259,7 +15259,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AD76" s="64" t="s">
+      <c r="AD76" s="76" t="s">
         <v>101</v>
       </c>
       <c r="AE76" s="47" t="s">
@@ -15276,7 +15276,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AI76" s="64" t="s">
+      <c r="AI76" s="76" t="s">
         <v>101</v>
       </c>
       <c r="AJ76" s="47" t="s">
@@ -18487,14 +18487,14 @@
       </c>
     </row>
     <row r="105" spans="1:39" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A105" s="65"/>
+      <c r="A105" s="75"/>
       <c r="B105" s="47" t="s">
         <v>131</v>
       </c>
       <c r="C105" s="48">
         <v>506.00000000000006</v>
       </c>
-      <c r="E105" s="65"/>
+      <c r="E105" s="75"/>
       <c r="F105" s="47" t="s">
         <v>131</v>
       </c>
@@ -18509,7 +18509,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J105" s="65"/>
+      <c r="J105" s="75"/>
       <c r="K105" s="47" t="s">
         <v>131</v>
       </c>
@@ -18524,7 +18524,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O105" s="65"/>
+      <c r="O105" s="75"/>
       <c r="P105" s="47" t="s">
         <v>131</v>
       </c>
@@ -18539,7 +18539,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T105" s="65"/>
+      <c r="T105" s="75"/>
       <c r="U105" s="47" t="s">
         <v>131</v>
       </c>
@@ -18554,7 +18554,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y105" s="65"/>
+      <c r="Y105" s="75"/>
       <c r="Z105" s="47" t="s">
         <v>131</v>
       </c>
@@ -18569,7 +18569,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AD105" s="65"/>
+      <c r="AD105" s="75"/>
       <c r="AE105" s="47" t="s">
         <v>131</v>
       </c>
@@ -18584,7 +18584,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AI105" s="65"/>
+      <c r="AI105" s="75"/>
       <c r="AJ105" s="47" t="s">
         <v>131</v>
       </c>
@@ -18731,7 +18731,7 @@
       </c>
     </row>
     <row r="107" spans="1:39" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A107" s="64" t="s">
+      <c r="A107" s="76" t="s">
         <v>134</v>
       </c>
       <c r="B107" s="47" t="s">
@@ -18740,7 +18740,7 @@
       <c r="C107" s="48">
         <v>13596.000000000002</v>
       </c>
-      <c r="E107" s="64" t="s">
+      <c r="E107" s="76" t="s">
         <v>134</v>
       </c>
       <c r="F107" s="47" t="s">
@@ -18757,7 +18757,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J107" s="64" t="s">
+      <c r="J107" s="76" t="s">
         <v>134</v>
       </c>
       <c r="K107" s="47" t="s">
@@ -18774,7 +18774,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O107" s="64" t="s">
+      <c r="O107" s="76" t="s">
         <v>134</v>
       </c>
       <c r="P107" s="47" t="s">
@@ -18791,7 +18791,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T107" s="64" t="s">
+      <c r="T107" s="76" t="s">
         <v>134</v>
       </c>
       <c r="U107" s="47" t="s">
@@ -18808,7 +18808,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y107" s="64" t="s">
+      <c r="Y107" s="76" t="s">
         <v>134</v>
       </c>
       <c r="Z107" s="47" t="s">
@@ -18825,7 +18825,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AD107" s="64" t="s">
+      <c r="AD107" s="76" t="s">
         <v>134</v>
       </c>
       <c r="AE107" s="47" t="s">
@@ -18842,7 +18842,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AI107" s="64" t="s">
+      <c r="AI107" s="76" t="s">
         <v>134</v>
       </c>
       <c r="AJ107" s="47" t="s">
@@ -20001,14 +20001,14 @@
       </c>
     </row>
     <row r="118" spans="1:39" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A118" s="65"/>
+      <c r="A118" s="75"/>
       <c r="B118" s="47" t="s">
         <v>146</v>
       </c>
       <c r="C118" s="48">
         <v>21362</v>
       </c>
-      <c r="E118" s="65"/>
+      <c r="E118" s="75"/>
       <c r="F118" s="47" t="s">
         <v>146</v>
       </c>
@@ -20023,7 +20023,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J118" s="65"/>
+      <c r="J118" s="75"/>
       <c r="K118" s="47" t="s">
         <v>146</v>
       </c>
@@ -20038,7 +20038,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O118" s="65"/>
+      <c r="O118" s="75"/>
       <c r="P118" s="47" t="s">
         <v>146</v>
       </c>
@@ -20053,7 +20053,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T118" s="65"/>
+      <c r="T118" s="75"/>
       <c r="U118" s="47" t="s">
         <v>146</v>
       </c>
@@ -20068,7 +20068,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y118" s="65"/>
+      <c r="Y118" s="75"/>
       <c r="Z118" s="47" t="s">
         <v>146</v>
       </c>
@@ -20083,7 +20083,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AD118" s="65"/>
+      <c r="AD118" s="75"/>
       <c r="AE118" s="47" t="s">
         <v>146</v>
       </c>
@@ -20098,7 +20098,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AI118" s="65"/>
+      <c r="AI118" s="75"/>
       <c r="AJ118" s="47" t="s">
         <v>146</v>
       </c>
@@ -20115,7 +20115,7 @@
       </c>
     </row>
     <row r="119" spans="1:39" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A119" s="66" t="s">
+      <c r="A119" s="82" t="s">
         <v>147</v>
       </c>
       <c r="B119" s="47" t="s">
@@ -20124,7 +20124,7 @@
       <c r="C119" s="48">
         <v>748.00000000000011</v>
       </c>
-      <c r="E119" s="66" t="s">
+      <c r="E119" s="82" t="s">
         <v>147</v>
       </c>
       <c r="F119" s="47" t="s">
@@ -20141,7 +20141,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J119" s="66" t="s">
+      <c r="J119" s="82" t="s">
         <v>147</v>
       </c>
       <c r="K119" s="47" t="s">
@@ -20158,7 +20158,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O119" s="66" t="s">
+      <c r="O119" s="82" t="s">
         <v>147</v>
       </c>
       <c r="P119" s="47" t="s">
@@ -20175,7 +20175,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T119" s="66" t="s">
+      <c r="T119" s="82" t="s">
         <v>147</v>
       </c>
       <c r="U119" s="47" t="s">
@@ -20192,7 +20192,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y119" s="66" t="s">
+      <c r="Y119" s="82" t="s">
         <v>147</v>
       </c>
       <c r="Z119" s="47" t="s">
@@ -20209,7 +20209,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AD119" s="66" t="s">
+      <c r="AD119" s="82" t="s">
         <v>147</v>
       </c>
       <c r="AE119" s="47" t="s">
@@ -20226,7 +20226,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AI119" s="66" t="s">
+      <c r="AI119" s="82" t="s">
         <v>147</v>
       </c>
       <c r="AJ119" s="47" t="s">
@@ -21727,14 +21727,14 @@
       </c>
     </row>
     <row r="133" spans="1:39" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A133" s="65"/>
+      <c r="A133" s="75"/>
       <c r="B133" s="47" t="s">
         <v>161</v>
       </c>
       <c r="C133" s="48">
         <v>1023.0000000000001</v>
       </c>
-      <c r="E133" s="65"/>
+      <c r="E133" s="75"/>
       <c r="F133" s="47" t="s">
         <v>161</v>
       </c>
@@ -21749,7 +21749,7 @@
         <f t="shared" ref="I133:I166" si="14">G133*H133</f>
         <v>0</v>
       </c>
-      <c r="J133" s="65"/>
+      <c r="J133" s="75"/>
       <c r="K133" s="47" t="s">
         <v>161</v>
       </c>
@@ -21764,7 +21764,7 @@
         <f t="shared" ref="N133:N166" si="15">L133*M133</f>
         <v>0</v>
       </c>
-      <c r="O133" s="65"/>
+      <c r="O133" s="75"/>
       <c r="P133" s="47" t="s">
         <v>161</v>
       </c>
@@ -21779,7 +21779,7 @@
         <f t="shared" ref="S133:S166" si="16">Q133*R133</f>
         <v>0</v>
       </c>
-      <c r="T133" s="65"/>
+      <c r="T133" s="75"/>
       <c r="U133" s="47" t="s">
         <v>161</v>
       </c>
@@ -21794,7 +21794,7 @@
         <f t="shared" ref="X133:X166" si="17">V133*W133</f>
         <v>0</v>
       </c>
-      <c r="Y133" s="65"/>
+      <c r="Y133" s="75"/>
       <c r="Z133" s="47" t="s">
         <v>161</v>
       </c>
@@ -21809,7 +21809,7 @@
         <f t="shared" ref="AC133:AC166" si="18">AA133*AB133</f>
         <v>0</v>
       </c>
-      <c r="AD133" s="65"/>
+      <c r="AD133" s="75"/>
       <c r="AE133" s="47" t="s">
         <v>161</v>
       </c>
@@ -21824,7 +21824,7 @@
         <f t="shared" ref="AH133:AH166" si="19">AF133*AG133</f>
         <v>0</v>
       </c>
-      <c r="AI133" s="65"/>
+      <c r="AI133" s="75"/>
       <c r="AJ133" s="47" t="s">
         <v>161</v>
       </c>
@@ -21841,7 +21841,7 @@
       </c>
     </row>
     <row r="134" spans="1:39" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A134" s="62" t="s">
+      <c r="A134" s="81" t="s">
         <v>162</v>
       </c>
       <c r="B134" s="47" t="s">
@@ -21850,7 +21850,7 @@
       <c r="C134" s="48">
         <v>385.00000000000006</v>
       </c>
-      <c r="E134" s="62" t="s">
+      <c r="E134" s="81" t="s">
         <v>162</v>
       </c>
       <c r="F134" s="47" t="s">
@@ -21867,7 +21867,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J134" s="62" t="s">
+      <c r="J134" s="81" t="s">
         <v>162</v>
       </c>
       <c r="K134" s="47" t="s">
@@ -21884,7 +21884,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O134" s="62" t="s">
+      <c r="O134" s="81" t="s">
         <v>162</v>
       </c>
       <c r="P134" s="47" t="s">
@@ -21901,7 +21901,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="T134" s="62" t="s">
+      <c r="T134" s="81" t="s">
         <v>162</v>
       </c>
       <c r="U134" s="47" t="s">
@@ -21918,7 +21918,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Y134" s="62" t="s">
+      <c r="Y134" s="81" t="s">
         <v>162</v>
       </c>
       <c r="Z134" s="47" t="s">
@@ -21935,7 +21935,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AD134" s="62" t="s">
+      <c r="AD134" s="81" t="s">
         <v>162</v>
       </c>
       <c r="AE134" s="47" t="s">
@@ -21952,7 +21952,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AI134" s="62" t="s">
+      <c r="AI134" s="81" t="s">
         <v>162</v>
       </c>
       <c r="AJ134" s="47" t="s">
@@ -22541,7 +22541,7 @@
       </c>
     </row>
     <row r="140" spans="1:39" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A140" s="62" t="s">
+      <c r="A140" s="81" t="s">
         <v>169</v>
       </c>
       <c r="B140" s="47" t="s">
@@ -22550,7 +22550,7 @@
       <c r="C140" s="48">
         <v>286</v>
       </c>
-      <c r="E140" s="62" t="s">
+      <c r="E140" s="81" t="s">
         <v>169</v>
       </c>
       <c r="F140" s="47" t="s">
@@ -22567,7 +22567,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J140" s="62" t="s">
+      <c r="J140" s="81" t="s">
         <v>169</v>
       </c>
       <c r="K140" s="47" t="s">
@@ -22584,7 +22584,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O140" s="62" t="s">
+      <c r="O140" s="81" t="s">
         <v>169</v>
       </c>
       <c r="P140" s="47" t="s">
@@ -22601,7 +22601,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="T140" s="62" t="s">
+      <c r="T140" s="81" t="s">
         <v>169</v>
       </c>
       <c r="U140" s="47" t="s">
@@ -22618,7 +22618,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Y140" s="62" t="s">
+      <c r="Y140" s="81" t="s">
         <v>169</v>
       </c>
       <c r="Z140" s="47" t="s">
@@ -22635,7 +22635,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AD140" s="62" t="s">
+      <c r="AD140" s="81" t="s">
         <v>169</v>
       </c>
       <c r="AE140" s="47" t="s">
@@ -22652,7 +22652,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AI140" s="62" t="s">
+      <c r="AI140" s="81" t="s">
         <v>169</v>
       </c>
       <c r="AJ140" s="47" t="s">
@@ -23241,7 +23241,7 @@
       </c>
     </row>
     <row r="146" spans="1:41" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A146" s="74" t="s">
+      <c r="A146" s="62" t="s">
         <v>176</v>
       </c>
       <c r="B146" s="47" t="s">
@@ -23250,7 +23250,7 @@
       <c r="C146" s="48">
         <v>1331</v>
       </c>
-      <c r="E146" s="74" t="s">
+      <c r="E146" s="62" t="s">
         <v>176</v>
       </c>
       <c r="F146" s="47" t="s">
@@ -23267,7 +23267,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J146" s="74" t="s">
+      <c r="J146" s="62" t="s">
         <v>176</v>
       </c>
       <c r="K146" s="47" t="s">
@@ -23284,7 +23284,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O146" s="74" t="s">
+      <c r="O146" s="62" t="s">
         <v>176</v>
       </c>
       <c r="P146" s="47" t="s">
@@ -23301,7 +23301,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="T146" s="74" t="s">
+      <c r="T146" s="62" t="s">
         <v>176</v>
       </c>
       <c r="U146" s="47" t="s">
@@ -23318,7 +23318,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Y146" s="74" t="s">
+      <c r="Y146" s="62" t="s">
         <v>176</v>
       </c>
       <c r="Z146" s="47" t="s">
@@ -23335,7 +23335,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AD146" s="74" t="s">
+      <c r="AD146" s="62" t="s">
         <v>176</v>
       </c>
       <c r="AE146" s="47" t="s">
@@ -23352,7 +23352,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AI146" s="74" t="s">
+      <c r="AI146" s="62" t="s">
         <v>176</v>
       </c>
       <c r="AJ146" s="47" t="s">
@@ -23713,14 +23713,14 @@
       </c>
     </row>
     <row r="150" spans="1:41" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A150" s="75"/>
+      <c r="A150" s="64"/>
       <c r="B150" s="50" t="s">
         <v>181</v>
       </c>
       <c r="C150" s="51">
         <v>1331</v>
       </c>
-      <c r="E150" s="75"/>
+      <c r="E150" s="64"/>
       <c r="F150" s="50" t="s">
         <v>181</v>
       </c>
@@ -23735,7 +23735,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J150" s="75"/>
+      <c r="J150" s="64"/>
       <c r="K150" s="50" t="s">
         <v>181</v>
       </c>
@@ -23750,7 +23750,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O150" s="75"/>
+      <c r="O150" s="64"/>
       <c r="P150" s="50" t="s">
         <v>181</v>
       </c>
@@ -23765,7 +23765,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="T150" s="75"/>
+      <c r="T150" s="64"/>
       <c r="U150" s="50" t="s">
         <v>181</v>
       </c>
@@ -23780,7 +23780,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Y150" s="75"/>
+      <c r="Y150" s="64"/>
       <c r="Z150" s="50" t="s">
         <v>181</v>
       </c>
@@ -23795,7 +23795,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AD150" s="75"/>
+      <c r="AD150" s="64"/>
       <c r="AE150" s="50" t="s">
         <v>181</v>
       </c>
@@ -23810,7 +23810,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AI150" s="75"/>
+      <c r="AI150" s="64"/>
       <c r="AJ150" s="50" t="s">
         <v>181</v>
       </c>
@@ -23829,7 +23829,7 @@
       <c r="AO150" s="2"/>
     </row>
     <row r="151" spans="1:41" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A151" s="76" t="s">
+      <c r="A151" s="65" t="s">
         <v>182</v>
       </c>
       <c r="B151" s="52" t="s">
@@ -23838,7 +23838,7 @@
       <c r="C151" s="53">
         <v>330</v>
       </c>
-      <c r="E151" s="76" t="s">
+      <c r="E151" s="65" t="s">
         <v>182</v>
       </c>
       <c r="F151" s="52" t="s">
@@ -23855,7 +23855,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J151" s="76" t="s">
+      <c r="J151" s="65" t="s">
         <v>182</v>
       </c>
       <c r="K151" s="52" t="s">
@@ -23872,7 +23872,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O151" s="76" t="s">
+      <c r="O151" s="65" t="s">
         <v>182</v>
       </c>
       <c r="P151" s="52" t="s">
@@ -23889,7 +23889,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="T151" s="76" t="s">
+      <c r="T151" s="65" t="s">
         <v>182</v>
       </c>
       <c r="U151" s="52" t="s">
@@ -23906,7 +23906,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Y151" s="76" t="s">
+      <c r="Y151" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Z151" s="52" t="s">
@@ -23923,7 +23923,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AD151" s="76" t="s">
+      <c r="AD151" s="65" t="s">
         <v>182</v>
       </c>
       <c r="AE151" s="52" t="s">
@@ -23940,7 +23940,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AI151" s="76" t="s">
+      <c r="AI151" s="65" t="s">
         <v>182</v>
       </c>
       <c r="AJ151" s="52" t="s">
@@ -23961,14 +23961,14 @@
       <c r="AO151" s="2"/>
     </row>
     <row r="152" spans="1:41" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A152" s="77"/>
+      <c r="A152" s="66"/>
       <c r="B152" s="52" t="s">
         <v>184</v>
       </c>
       <c r="C152" s="53">
         <v>616</v>
       </c>
-      <c r="E152" s="77"/>
+      <c r="E152" s="66"/>
       <c r="F152" s="52" t="s">
         <v>184</v>
       </c>
@@ -23983,7 +23983,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J152" s="77"/>
+      <c r="J152" s="66"/>
       <c r="K152" s="52" t="s">
         <v>184</v>
       </c>
@@ -23998,7 +23998,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O152" s="77"/>
+      <c r="O152" s="66"/>
       <c r="P152" s="52" t="s">
         <v>184</v>
       </c>
@@ -24013,7 +24013,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="T152" s="77"/>
+      <c r="T152" s="66"/>
       <c r="U152" s="52" t="s">
         <v>184</v>
       </c>
@@ -24028,7 +24028,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Y152" s="77"/>
+      <c r="Y152" s="66"/>
       <c r="Z152" s="52" t="s">
         <v>184</v>
       </c>
@@ -24043,7 +24043,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AD152" s="77"/>
+      <c r="AD152" s="66"/>
       <c r="AE152" s="52" t="s">
         <v>184</v>
       </c>
@@ -24058,7 +24058,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AI152" s="77"/>
+      <c r="AI152" s="66"/>
       <c r="AJ152" s="52" t="s">
         <v>184</v>
       </c>
@@ -24077,14 +24077,14 @@
       <c r="AO152" s="2"/>
     </row>
     <row r="153" spans="1:41" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A153" s="77"/>
+      <c r="A153" s="66"/>
       <c r="B153" s="52" t="s">
         <v>185</v>
       </c>
       <c r="C153" s="53">
         <v>660</v>
       </c>
-      <c r="E153" s="77"/>
+      <c r="E153" s="66"/>
       <c r="F153" s="52" t="s">
         <v>185</v>
       </c>
@@ -24099,7 +24099,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J153" s="77"/>
+      <c r="J153" s="66"/>
       <c r="K153" s="52" t="s">
         <v>185</v>
       </c>
@@ -24114,7 +24114,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O153" s="77"/>
+      <c r="O153" s="66"/>
       <c r="P153" s="52" t="s">
         <v>185</v>
       </c>
@@ -24129,7 +24129,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="T153" s="77"/>
+      <c r="T153" s="66"/>
       <c r="U153" s="52" t="s">
         <v>185</v>
       </c>
@@ -24144,7 +24144,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Y153" s="77"/>
+      <c r="Y153" s="66"/>
       <c r="Z153" s="52" t="s">
         <v>185</v>
       </c>
@@ -24159,7 +24159,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AD153" s="77"/>
+      <c r="AD153" s="66"/>
       <c r="AE153" s="52" t="s">
         <v>185</v>
       </c>
@@ -24174,7 +24174,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AI153" s="77"/>
+      <c r="AI153" s="66"/>
       <c r="AJ153" s="52" t="s">
         <v>185</v>
       </c>
@@ -24193,14 +24193,14 @@
       <c r="AO153" s="8"/>
     </row>
     <row r="154" spans="1:41" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A154" s="77"/>
+      <c r="A154" s="66"/>
       <c r="B154" s="52" t="s">
         <v>186</v>
       </c>
       <c r="C154" s="53">
         <v>660</v>
       </c>
-      <c r="E154" s="77"/>
+      <c r="E154" s="66"/>
       <c r="F154" s="52" t="s">
         <v>186</v>
       </c>
@@ -24215,7 +24215,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J154" s="77"/>
+      <c r="J154" s="66"/>
       <c r="K154" s="52" t="s">
         <v>186</v>
       </c>
@@ -24230,7 +24230,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O154" s="77"/>
+      <c r="O154" s="66"/>
       <c r="P154" s="52" t="s">
         <v>186</v>
       </c>
@@ -24245,7 +24245,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="T154" s="77"/>
+      <c r="T154" s="66"/>
       <c r="U154" s="52" t="s">
         <v>186</v>
       </c>
@@ -24260,7 +24260,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Y154" s="77"/>
+      <c r="Y154" s="66"/>
       <c r="Z154" s="52" t="s">
         <v>186</v>
       </c>
@@ -24275,7 +24275,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AD154" s="77"/>
+      <c r="AD154" s="66"/>
       <c r="AE154" s="52" t="s">
         <v>186</v>
       </c>
@@ -24290,7 +24290,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AI154" s="77"/>
+      <c r="AI154" s="66"/>
       <c r="AJ154" s="52" t="s">
         <v>186</v>
       </c>
@@ -24309,14 +24309,14 @@
       <c r="AO154" s="8"/>
     </row>
     <row r="155" spans="1:41" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A155" s="77"/>
+      <c r="A155" s="66"/>
       <c r="B155" s="52" t="s">
         <v>187</v>
       </c>
       <c r="C155" s="53">
         <v>814.00000000000011</v>
       </c>
-      <c r="E155" s="77"/>
+      <c r="E155" s="66"/>
       <c r="F155" s="52" t="s">
         <v>187</v>
       </c>
@@ -24331,7 +24331,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J155" s="77"/>
+      <c r="J155" s="66"/>
       <c r="K155" s="52" t="s">
         <v>187</v>
       </c>
@@ -24346,7 +24346,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O155" s="77"/>
+      <c r="O155" s="66"/>
       <c r="P155" s="52" t="s">
         <v>187</v>
       </c>
@@ -24361,7 +24361,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="T155" s="77"/>
+      <c r="T155" s="66"/>
       <c r="U155" s="52" t="s">
         <v>187</v>
       </c>
@@ -24376,7 +24376,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Y155" s="77"/>
+      <c r="Y155" s="66"/>
       <c r="Z155" s="52" t="s">
         <v>187</v>
       </c>
@@ -24391,7 +24391,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AD155" s="77"/>
+      <c r="AD155" s="66"/>
       <c r="AE155" s="52" t="s">
         <v>187</v>
       </c>
@@ -24406,7 +24406,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AI155" s="77"/>
+      <c r="AI155" s="66"/>
       <c r="AJ155" s="52" t="s">
         <v>187</v>
       </c>
@@ -24425,14 +24425,14 @@
       <c r="AO155" s="8"/>
     </row>
     <row r="156" spans="1:41" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A156" s="77"/>
+      <c r="A156" s="66"/>
       <c r="B156" s="52" t="s">
         <v>188</v>
       </c>
       <c r="C156" s="53">
         <v>814.00000000000011</v>
       </c>
-      <c r="E156" s="77"/>
+      <c r="E156" s="66"/>
       <c r="F156" s="52" t="s">
         <v>188</v>
       </c>
@@ -24447,7 +24447,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J156" s="77"/>
+      <c r="J156" s="66"/>
       <c r="K156" s="52" t="s">
         <v>188</v>
       </c>
@@ -24462,7 +24462,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O156" s="77"/>
+      <c r="O156" s="66"/>
       <c r="P156" s="52" t="s">
         <v>188</v>
       </c>
@@ -24477,7 +24477,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="T156" s="77"/>
+      <c r="T156" s="66"/>
       <c r="U156" s="52" t="s">
         <v>188</v>
       </c>
@@ -24492,7 +24492,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Y156" s="77"/>
+      <c r="Y156" s="66"/>
       <c r="Z156" s="52" t="s">
         <v>188</v>
       </c>
@@ -24507,7 +24507,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AD156" s="77"/>
+      <c r="AD156" s="66"/>
       <c r="AE156" s="52" t="s">
         <v>188</v>
       </c>
@@ -24522,7 +24522,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AI156" s="77"/>
+      <c r="AI156" s="66"/>
       <c r="AJ156" s="52" t="s">
         <v>188</v>
       </c>
@@ -24541,14 +24541,14 @@
       <c r="AO156" s="8"/>
     </row>
     <row r="157" spans="1:41" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A157" s="77"/>
+      <c r="A157" s="66"/>
       <c r="B157" s="52" t="s">
         <v>189</v>
       </c>
       <c r="C157" s="53">
         <v>913.00000000000011</v>
       </c>
-      <c r="E157" s="77"/>
+      <c r="E157" s="66"/>
       <c r="F157" s="52" t="s">
         <v>189</v>
       </c>
@@ -24563,7 +24563,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J157" s="77"/>
+      <c r="J157" s="66"/>
       <c r="K157" s="52" t="s">
         <v>189</v>
       </c>
@@ -24578,7 +24578,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O157" s="77"/>
+      <c r="O157" s="66"/>
       <c r="P157" s="52" t="s">
         <v>189</v>
       </c>
@@ -24593,7 +24593,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="T157" s="77"/>
+      <c r="T157" s="66"/>
       <c r="U157" s="52" t="s">
         <v>189</v>
       </c>
@@ -24608,7 +24608,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Y157" s="77"/>
+      <c r="Y157" s="66"/>
       <c r="Z157" s="52" t="s">
         <v>189</v>
       </c>
@@ -24623,7 +24623,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AD157" s="77"/>
+      <c r="AD157" s="66"/>
       <c r="AE157" s="52" t="s">
         <v>189</v>
       </c>
@@ -24638,7 +24638,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AI157" s="77"/>
+      <c r="AI157" s="66"/>
       <c r="AJ157" s="52" t="s">
         <v>189</v>
       </c>
@@ -24657,14 +24657,14 @@
       <c r="AO157" s="8"/>
     </row>
     <row r="158" spans="1:41" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A158" s="77"/>
+      <c r="A158" s="66"/>
       <c r="B158" s="52" t="s">
         <v>190</v>
       </c>
       <c r="C158" s="53">
         <v>924.00000000000011</v>
       </c>
-      <c r="E158" s="77"/>
+      <c r="E158" s="66"/>
       <c r="F158" s="52" t="s">
         <v>190</v>
       </c>
@@ -24679,7 +24679,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J158" s="77"/>
+      <c r="J158" s="66"/>
       <c r="K158" s="52" t="s">
         <v>190</v>
       </c>
@@ -24694,7 +24694,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O158" s="77"/>
+      <c r="O158" s="66"/>
       <c r="P158" s="52" t="s">
         <v>190</v>
       </c>
@@ -24709,7 +24709,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="T158" s="77"/>
+      <c r="T158" s="66"/>
       <c r="U158" s="52" t="s">
         <v>190</v>
       </c>
@@ -24724,7 +24724,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Y158" s="77"/>
+      <c r="Y158" s="66"/>
       <c r="Z158" s="52" t="s">
         <v>190</v>
       </c>
@@ -24739,7 +24739,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AD158" s="77"/>
+      <c r="AD158" s="66"/>
       <c r="AE158" s="52" t="s">
         <v>190</v>
       </c>
@@ -24754,7 +24754,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AI158" s="77"/>
+      <c r="AI158" s="66"/>
       <c r="AJ158" s="52" t="s">
         <v>190</v>
       </c>
@@ -24773,14 +24773,14 @@
       <c r="AO158" s="8"/>
     </row>
     <row r="159" spans="1:41" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A159" s="77"/>
+      <c r="A159" s="66"/>
       <c r="B159" s="52" t="s">
         <v>191</v>
       </c>
       <c r="C159" s="53">
         <v>924.00000000000011</v>
       </c>
-      <c r="E159" s="77"/>
+      <c r="E159" s="66"/>
       <c r="F159" s="52" t="s">
         <v>191</v>
       </c>
@@ -24795,7 +24795,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J159" s="77"/>
+      <c r="J159" s="66"/>
       <c r="K159" s="52" t="s">
         <v>191</v>
       </c>
@@ -24810,7 +24810,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O159" s="77"/>
+      <c r="O159" s="66"/>
       <c r="P159" s="52" t="s">
         <v>191</v>
       </c>
@@ -24825,7 +24825,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="T159" s="77"/>
+      <c r="T159" s="66"/>
       <c r="U159" s="52" t="s">
         <v>191</v>
       </c>
@@ -24840,7 +24840,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Y159" s="77"/>
+      <c r="Y159" s="66"/>
       <c r="Z159" s="52" t="s">
         <v>191</v>
       </c>
@@ -24855,7 +24855,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AD159" s="77"/>
+      <c r="AD159" s="66"/>
       <c r="AE159" s="52" t="s">
         <v>191</v>
       </c>
@@ -24870,7 +24870,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AI159" s="77"/>
+      <c r="AI159" s="66"/>
       <c r="AJ159" s="52" t="s">
         <v>191</v>
       </c>
@@ -24889,14 +24889,14 @@
       <c r="AO159" s="8"/>
     </row>
     <row r="160" spans="1:41" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A160" s="77"/>
+      <c r="A160" s="66"/>
       <c r="B160" s="52" t="s">
         <v>192</v>
       </c>
       <c r="C160" s="53">
         <v>924.00000000000011</v>
       </c>
-      <c r="E160" s="77"/>
+      <c r="E160" s="66"/>
       <c r="F160" s="52" t="s">
         <v>192</v>
       </c>
@@ -24911,7 +24911,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J160" s="77"/>
+      <c r="J160" s="66"/>
       <c r="K160" s="52" t="s">
         <v>192</v>
       </c>
@@ -24926,7 +24926,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O160" s="77"/>
+      <c r="O160" s="66"/>
       <c r="P160" s="52" t="s">
         <v>192</v>
       </c>
@@ -24941,7 +24941,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="T160" s="77"/>
+      <c r="T160" s="66"/>
       <c r="U160" s="52" t="s">
         <v>192</v>
       </c>
@@ -24956,7 +24956,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Y160" s="77"/>
+      <c r="Y160" s="66"/>
       <c r="Z160" s="52" t="s">
         <v>192</v>
       </c>
@@ -24971,7 +24971,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AD160" s="77"/>
+      <c r="AD160" s="66"/>
       <c r="AE160" s="52" t="s">
         <v>192</v>
       </c>
@@ -24986,7 +24986,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AI160" s="77"/>
+      <c r="AI160" s="66"/>
       <c r="AJ160" s="52" t="s">
         <v>192</v>
       </c>
@@ -25005,14 +25005,14 @@
       <c r="AO160" s="8"/>
     </row>
     <row r="161" spans="1:41" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A161" s="77"/>
+      <c r="A161" s="66"/>
       <c r="B161" s="52" t="s">
         <v>193</v>
       </c>
       <c r="C161" s="53">
         <v>1342</v>
       </c>
-      <c r="E161" s="77"/>
+      <c r="E161" s="66"/>
       <c r="F161" s="52" t="s">
         <v>193</v>
       </c>
@@ -25027,7 +25027,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J161" s="77"/>
+      <c r="J161" s="66"/>
       <c r="K161" s="52" t="s">
         <v>193</v>
       </c>
@@ -25042,7 +25042,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O161" s="77"/>
+      <c r="O161" s="66"/>
       <c r="P161" s="52" t="s">
         <v>193</v>
       </c>
@@ -25057,7 +25057,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="T161" s="77"/>
+      <c r="T161" s="66"/>
       <c r="U161" s="52" t="s">
         <v>193</v>
       </c>
@@ -25072,7 +25072,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Y161" s="77"/>
+      <c r="Y161" s="66"/>
       <c r="Z161" s="52" t="s">
         <v>193</v>
       </c>
@@ -25087,7 +25087,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AD161" s="77"/>
+      <c r="AD161" s="66"/>
       <c r="AE161" s="52" t="s">
         <v>193</v>
       </c>
@@ -25102,7 +25102,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AI161" s="77"/>
+      <c r="AI161" s="66"/>
       <c r="AJ161" s="52" t="s">
         <v>193</v>
       </c>
@@ -25121,14 +25121,14 @@
       <c r="AO161" s="8"/>
     </row>
     <row r="162" spans="1:41" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A162" s="77"/>
+      <c r="A162" s="66"/>
       <c r="B162" s="52" t="s">
         <v>194</v>
       </c>
       <c r="C162" s="53">
         <v>1342</v>
       </c>
-      <c r="E162" s="77"/>
+      <c r="E162" s="66"/>
       <c r="F162" s="52" t="s">
         <v>194</v>
       </c>
@@ -25143,7 +25143,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J162" s="77"/>
+      <c r="J162" s="66"/>
       <c r="K162" s="52" t="s">
         <v>194</v>
       </c>
@@ -25158,7 +25158,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O162" s="77"/>
+      <c r="O162" s="66"/>
       <c r="P162" s="52" t="s">
         <v>194</v>
       </c>
@@ -25173,7 +25173,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="T162" s="77"/>
+      <c r="T162" s="66"/>
       <c r="U162" s="52" t="s">
         <v>194</v>
       </c>
@@ -25188,7 +25188,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Y162" s="77"/>
+      <c r="Y162" s="66"/>
       <c r="Z162" s="52" t="s">
         <v>194</v>
       </c>
@@ -25203,7 +25203,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AD162" s="77"/>
+      <c r="AD162" s="66"/>
       <c r="AE162" s="52" t="s">
         <v>194</v>
       </c>
@@ -25218,7 +25218,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AI162" s="77"/>
+      <c r="AI162" s="66"/>
       <c r="AJ162" s="52" t="s">
         <v>194</v>
       </c>
@@ -25237,14 +25237,14 @@
       <c r="AO162" s="8"/>
     </row>
     <row r="163" spans="1:41" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A163" s="77"/>
+      <c r="A163" s="66"/>
       <c r="B163" s="52" t="s">
         <v>195</v>
       </c>
       <c r="C163" s="53">
         <v>1342</v>
       </c>
-      <c r="E163" s="77"/>
+      <c r="E163" s="66"/>
       <c r="F163" s="52" t="s">
         <v>195</v>
       </c>
@@ -25259,7 +25259,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J163" s="77"/>
+      <c r="J163" s="66"/>
       <c r="K163" s="52" t="s">
         <v>195</v>
       </c>
@@ -25274,7 +25274,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O163" s="77"/>
+      <c r="O163" s="66"/>
       <c r="P163" s="52" t="s">
         <v>195</v>
       </c>
@@ -25289,7 +25289,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="T163" s="77"/>
+      <c r="T163" s="66"/>
       <c r="U163" s="52" t="s">
         <v>195</v>
       </c>
@@ -25304,7 +25304,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Y163" s="77"/>
+      <c r="Y163" s="66"/>
       <c r="Z163" s="52" t="s">
         <v>195</v>
       </c>
@@ -25319,7 +25319,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AD163" s="77"/>
+      <c r="AD163" s="66"/>
       <c r="AE163" s="52" t="s">
         <v>195</v>
       </c>
@@ -25334,7 +25334,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AI163" s="77"/>
+      <c r="AI163" s="66"/>
       <c r="AJ163" s="52" t="s">
         <v>195</v>
       </c>
@@ -25353,14 +25353,14 @@
       <c r="AO163" s="8"/>
     </row>
     <row r="164" spans="1:41" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A164" s="77"/>
+      <c r="A164" s="66"/>
       <c r="B164" s="52" t="s">
         <v>196</v>
       </c>
       <c r="C164" s="53">
         <v>1386</v>
       </c>
-      <c r="E164" s="77"/>
+      <c r="E164" s="66"/>
       <c r="F164" s="52" t="s">
         <v>196</v>
       </c>
@@ -25375,7 +25375,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J164" s="77"/>
+      <c r="J164" s="66"/>
       <c r="K164" s="52" t="s">
         <v>196</v>
       </c>
@@ -25390,7 +25390,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O164" s="77"/>
+      <c r="O164" s="66"/>
       <c r="P164" s="52" t="s">
         <v>196</v>
       </c>
@@ -25405,7 +25405,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="T164" s="77"/>
+      <c r="T164" s="66"/>
       <c r="U164" s="52" t="s">
         <v>196</v>
       </c>
@@ -25420,7 +25420,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Y164" s="77"/>
+      <c r="Y164" s="66"/>
       <c r="Z164" s="52" t="s">
         <v>196</v>
       </c>
@@ -25435,7 +25435,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AD164" s="77"/>
+      <c r="AD164" s="66"/>
       <c r="AE164" s="52" t="s">
         <v>196</v>
       </c>
@@ -25450,7 +25450,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AI164" s="77"/>
+      <c r="AI164" s="66"/>
       <c r="AJ164" s="52" t="s">
         <v>196</v>
       </c>
@@ -25469,14 +25469,14 @@
       <c r="AO164" s="8"/>
     </row>
     <row r="165" spans="1:41" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A165" s="77"/>
+      <c r="A165" s="66"/>
       <c r="B165" s="52" t="s">
         <v>197</v>
       </c>
       <c r="C165" s="53">
         <v>1386</v>
       </c>
-      <c r="E165" s="77"/>
+      <c r="E165" s="66"/>
       <c r="F165" s="52" t="s">
         <v>197</v>
       </c>
@@ -25491,7 +25491,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J165" s="77"/>
+      <c r="J165" s="66"/>
       <c r="K165" s="52" t="s">
         <v>197</v>
       </c>
@@ -25506,7 +25506,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O165" s="77"/>
+      <c r="O165" s="66"/>
       <c r="P165" s="52" t="s">
         <v>197</v>
       </c>
@@ -25521,7 +25521,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="T165" s="77"/>
+      <c r="T165" s="66"/>
       <c r="U165" s="52" t="s">
         <v>197</v>
       </c>
@@ -25536,7 +25536,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Y165" s="77"/>
+      <c r="Y165" s="66"/>
       <c r="Z165" s="52" t="s">
         <v>197</v>
       </c>
@@ -25551,7 +25551,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AD165" s="77"/>
+      <c r="AD165" s="66"/>
       <c r="AE165" s="52" t="s">
         <v>197</v>
       </c>
@@ -25566,7 +25566,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AI165" s="77"/>
+      <c r="AI165" s="66"/>
       <c r="AJ165" s="52" t="s">
         <v>197</v>
       </c>
@@ -25585,14 +25585,14 @@
       <c r="AO165" s="8"/>
     </row>
     <row r="166" spans="1:41" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A166" s="78"/>
+      <c r="A166" s="67"/>
       <c r="B166" s="52" t="s">
         <v>198</v>
       </c>
       <c r="C166" s="53">
         <v>1386</v>
       </c>
-      <c r="E166" s="78"/>
+      <c r="E166" s="67"/>
       <c r="F166" s="52" t="s">
         <v>198</v>
       </c>
@@ -25607,7 +25607,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J166" s="78"/>
+      <c r="J166" s="67"/>
       <c r="K166" s="52" t="s">
         <v>198</v>
       </c>
@@ -25622,7 +25622,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O166" s="78"/>
+      <c r="O166" s="67"/>
       <c r="P166" s="52" t="s">
         <v>198</v>
       </c>
@@ -25637,7 +25637,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="T166" s="78"/>
+      <c r="T166" s="67"/>
       <c r="U166" s="52" t="s">
         <v>198</v>
       </c>
@@ -25652,7 +25652,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Y166" s="78"/>
+      <c r="Y166" s="67"/>
       <c r="Z166" s="52" t="s">
         <v>198</v>
       </c>
@@ -25667,7 +25667,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AD166" s="78"/>
+      <c r="AD166" s="67"/>
       <c r="AE166" s="52" t="s">
         <v>198</v>
       </c>
@@ -25682,7 +25682,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AI166" s="78"/>
+      <c r="AI166" s="67"/>
       <c r="AJ166" s="52" t="s">
         <v>198</v>
       </c>
@@ -25699,97 +25699,97 @@
       </c>
     </row>
     <row r="167" spans="1:41" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="E167" s="79" t="s">
+      <c r="E167" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="F167" s="79"/>
+      <c r="F167" s="87"/>
       <c r="G167" s="54">
         <f>SUM(G4:G166)</f>
         <v>0</v>
       </c>
-      <c r="H167" s="83">
+      <c r="H167" s="88">
         <f>SUM(I4:I166)</f>
         <v>0</v>
       </c>
-      <c r="I167" s="82"/>
-      <c r="J167" s="79" t="s">
+      <c r="I167" s="89"/>
+      <c r="J167" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="K167" s="79"/>
+      <c r="K167" s="87"/>
       <c r="L167" s="54">
         <f t="shared" ref="L167" si="21">SUM(L4:L166)</f>
         <v>0</v>
       </c>
-      <c r="M167" s="83">
+      <c r="M167" s="88">
         <f t="shared" ref="M167" si="22">SUM(N4:N166)</f>
         <v>0</v>
       </c>
-      <c r="N167" s="82"/>
-      <c r="O167" s="79" t="s">
+      <c r="N167" s="89"/>
+      <c r="O167" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="P167" s="79"/>
+      <c r="P167" s="87"/>
       <c r="Q167" s="54">
         <f t="shared" ref="Q167" si="23">SUM(Q4:Q166)</f>
         <v>0</v>
       </c>
-      <c r="R167" s="83">
+      <c r="R167" s="88">
         <f t="shared" ref="R167" si="24">SUM(S4:S166)</f>
         <v>0</v>
       </c>
-      <c r="S167" s="82"/>
-      <c r="T167" s="79" t="s">
+      <c r="S167" s="89"/>
+      <c r="T167" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="U167" s="79"/>
+      <c r="U167" s="87"/>
       <c r="V167" s="54">
         <f t="shared" ref="V167" si="25">SUM(V4:V166)</f>
         <v>0</v>
       </c>
-      <c r="W167" s="83">
+      <c r="W167" s="88">
         <f t="shared" ref="W167" si="26">SUM(X4:X166)</f>
         <v>0</v>
       </c>
-      <c r="X167" s="82"/>
-      <c r="Y167" s="79" t="s">
+      <c r="X167" s="89"/>
+      <c r="Y167" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="Z167" s="79"/>
+      <c r="Z167" s="87"/>
       <c r="AA167" s="54">
         <f t="shared" ref="AA167" si="27">SUM(AA4:AA166)</f>
         <v>0</v>
       </c>
-      <c r="AB167" s="83">
+      <c r="AB167" s="88">
         <f t="shared" ref="AB167" si="28">SUM(AC4:AC166)</f>
         <v>0</v>
       </c>
-      <c r="AC167" s="82"/>
-      <c r="AD167" s="79" t="s">
+      <c r="AC167" s="89"/>
+      <c r="AD167" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="AE167" s="79"/>
+      <c r="AE167" s="87"/>
       <c r="AF167" s="54">
         <f t="shared" ref="AF167" si="29">SUM(AF4:AF166)</f>
         <v>0</v>
       </c>
-      <c r="AG167" s="83">
+      <c r="AG167" s="88">
         <f t="shared" ref="AG167" si="30">SUM(AH4:AH166)</f>
         <v>0</v>
       </c>
-      <c r="AH167" s="82"/>
-      <c r="AI167" s="79" t="s">
+      <c r="AH167" s="89"/>
+      <c r="AI167" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="AJ167" s="79"/>
+      <c r="AJ167" s="87"/>
       <c r="AK167" s="54">
         <f t="shared" ref="AK167" si="31">SUM(AK4:AK166)</f>
         <v>0</v>
       </c>
-      <c r="AL167" s="80">
+      <c r="AL167" s="90">
         <f>SUM(AM4:AM166)</f>
         <v>0</v>
       </c>
-      <c r="AM167" s="80"/>
+      <c r="AM167" s="90"/>
     </row>
     <row r="168" spans="1:41" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="E168" s="55"/>
@@ -25859,16 +25859,16 @@
       <c r="AF169" s="57"/>
       <c r="AG169" s="58"/>
       <c r="AH169" s="59"/>
-      <c r="AI169" s="79" t="s">
+      <c r="AI169" s="87" t="s">
         <v>199</v>
       </c>
-      <c r="AJ169" s="79"/>
-      <c r="AK169" s="81">
+      <c r="AJ169" s="87"/>
+      <c r="AK169" s="91">
         <f>SUM(H167,M167,R167,W167,AB167,AG167,AL167)</f>
         <v>0</v>
       </c>
-      <c r="AL169" s="81"/>
-      <c r="AM169" s="82"/>
+      <c r="AL169" s="91"/>
+      <c r="AM169" s="89"/>
     </row>
     <row r="170" spans="1:41" s="1" customFormat="1" ht="20.100000000000001" customHeight="1"/>
     <row r="171" spans="1:41" s="1" customFormat="1" ht="20.100000000000001" customHeight="1"/>
@@ -25928,85 +25928,31 @@
     <row r="225" s="1" customFormat="1" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <mergeCells count="128">
-    <mergeCell ref="AD140:AD145"/>
-    <mergeCell ref="AD146:AD150"/>
-    <mergeCell ref="AI140:AI145"/>
-    <mergeCell ref="AI146:AI150"/>
-    <mergeCell ref="AI151:AI166"/>
-    <mergeCell ref="AI119:AI133"/>
-    <mergeCell ref="O140:O145"/>
-    <mergeCell ref="O146:O150"/>
-    <mergeCell ref="O151:O166"/>
-    <mergeCell ref="T4:T9"/>
-    <mergeCell ref="T10:T32"/>
-    <mergeCell ref="T74:T75"/>
-    <mergeCell ref="T76:T105"/>
-    <mergeCell ref="T107:T118"/>
-    <mergeCell ref="T119:T133"/>
-    <mergeCell ref="T134:T139"/>
-    <mergeCell ref="T140:T145"/>
-    <mergeCell ref="T146:T150"/>
-    <mergeCell ref="T151:T166"/>
-    <mergeCell ref="T51:T73"/>
-    <mergeCell ref="O51:O73"/>
-    <mergeCell ref="O74:O75"/>
-    <mergeCell ref="O76:O105"/>
-    <mergeCell ref="O107:O118"/>
-    <mergeCell ref="O119:O133"/>
-    <mergeCell ref="Y140:Y145"/>
-    <mergeCell ref="Y146:Y150"/>
-    <mergeCell ref="Y151:Y166"/>
-    <mergeCell ref="AD151:AD166"/>
-    <mergeCell ref="O134:O139"/>
-    <mergeCell ref="J51:J73"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="J76:J105"/>
-    <mergeCell ref="AI51:AI73"/>
-    <mergeCell ref="AI134:AI139"/>
-    <mergeCell ref="AD51:AD73"/>
-    <mergeCell ref="Y51:Y73"/>
-    <mergeCell ref="Y74:Y75"/>
-    <mergeCell ref="Y76:Y105"/>
-    <mergeCell ref="Y107:Y118"/>
-    <mergeCell ref="Y119:Y133"/>
-    <mergeCell ref="Y134:Y139"/>
-    <mergeCell ref="AD74:AD75"/>
-    <mergeCell ref="AD76:AD105"/>
-    <mergeCell ref="AD107:AD118"/>
-    <mergeCell ref="AD119:AD133"/>
-    <mergeCell ref="AD134:AD139"/>
-    <mergeCell ref="J107:J118"/>
-    <mergeCell ref="J119:J133"/>
-    <mergeCell ref="J134:J139"/>
-    <mergeCell ref="AI74:AI75"/>
-    <mergeCell ref="AI76:AI105"/>
-    <mergeCell ref="AI107:AI118"/>
-    <mergeCell ref="E51:E73"/>
-    <mergeCell ref="A51:A73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A76:A105"/>
-    <mergeCell ref="A107:A118"/>
-    <mergeCell ref="A119:A133"/>
-    <mergeCell ref="A134:A139"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="E76:E105"/>
-    <mergeCell ref="E107:E118"/>
-    <mergeCell ref="E119:E133"/>
-    <mergeCell ref="E134:E139"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="J2:N2"/>
-    <mergeCell ref="O2:S2"/>
-    <mergeCell ref="Y2:AC2"/>
-    <mergeCell ref="AD2:AH2"/>
-    <mergeCell ref="AI2:AM2"/>
-    <mergeCell ref="T2:X2"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="E4:E9"/>
-    <mergeCell ref="J4:J9"/>
-    <mergeCell ref="O4:O9"/>
-    <mergeCell ref="Y4:Y9"/>
-    <mergeCell ref="AD4:AD9"/>
+    <mergeCell ref="AI167:AJ167"/>
+    <mergeCell ref="AL167:AM167"/>
+    <mergeCell ref="AI169:AJ169"/>
+    <mergeCell ref="AK169:AM169"/>
+    <mergeCell ref="M167:N167"/>
+    <mergeCell ref="O167:P167"/>
+    <mergeCell ref="R167:S167"/>
+    <mergeCell ref="T167:U167"/>
+    <mergeCell ref="W167:X167"/>
+    <mergeCell ref="Y167:Z167"/>
+    <mergeCell ref="AB167:AC167"/>
+    <mergeCell ref="AD167:AE167"/>
+    <mergeCell ref="AG167:AH167"/>
+    <mergeCell ref="A140:A145"/>
+    <mergeCell ref="A146:A150"/>
+    <mergeCell ref="A151:A166"/>
+    <mergeCell ref="E146:E150"/>
+    <mergeCell ref="E151:E166"/>
+    <mergeCell ref="J140:J145"/>
+    <mergeCell ref="J146:J150"/>
+    <mergeCell ref="J151:J166"/>
+    <mergeCell ref="E167:F167"/>
+    <mergeCell ref="H167:I167"/>
+    <mergeCell ref="J167:K167"/>
+    <mergeCell ref="E140:E145"/>
     <mergeCell ref="A33:A42"/>
     <mergeCell ref="AI33:AI42"/>
     <mergeCell ref="A10:A32"/>
@@ -26031,31 +25977,85 @@
     <mergeCell ref="AD33:AD42"/>
     <mergeCell ref="AD10:AD32"/>
     <mergeCell ref="AI10:AI32"/>
-    <mergeCell ref="A140:A145"/>
-    <mergeCell ref="A146:A150"/>
-    <mergeCell ref="A151:A166"/>
-    <mergeCell ref="E146:E150"/>
-    <mergeCell ref="E151:E166"/>
-    <mergeCell ref="J140:J145"/>
-    <mergeCell ref="J146:J150"/>
-    <mergeCell ref="J151:J166"/>
-    <mergeCell ref="E167:F167"/>
-    <mergeCell ref="H167:I167"/>
-    <mergeCell ref="J167:K167"/>
-    <mergeCell ref="E140:E145"/>
-    <mergeCell ref="AI167:AJ167"/>
-    <mergeCell ref="AL167:AM167"/>
-    <mergeCell ref="AI169:AJ169"/>
-    <mergeCell ref="AK169:AM169"/>
-    <mergeCell ref="M167:N167"/>
-    <mergeCell ref="O167:P167"/>
-    <mergeCell ref="R167:S167"/>
-    <mergeCell ref="T167:U167"/>
-    <mergeCell ref="W167:X167"/>
-    <mergeCell ref="Y167:Z167"/>
-    <mergeCell ref="AB167:AC167"/>
-    <mergeCell ref="AD167:AE167"/>
-    <mergeCell ref="AG167:AH167"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="J2:N2"/>
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="Y2:AC2"/>
+    <mergeCell ref="AD2:AH2"/>
+    <mergeCell ref="AI2:AM2"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="E4:E9"/>
+    <mergeCell ref="J4:J9"/>
+    <mergeCell ref="O4:O9"/>
+    <mergeCell ref="Y4:Y9"/>
+    <mergeCell ref="AD4:AD9"/>
+    <mergeCell ref="E51:E73"/>
+    <mergeCell ref="A51:A73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A76:A105"/>
+    <mergeCell ref="A107:A118"/>
+    <mergeCell ref="A119:A133"/>
+    <mergeCell ref="A134:A139"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="E76:E105"/>
+    <mergeCell ref="E107:E118"/>
+    <mergeCell ref="E119:E133"/>
+    <mergeCell ref="E134:E139"/>
+    <mergeCell ref="J51:J73"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="J76:J105"/>
+    <mergeCell ref="AI51:AI73"/>
+    <mergeCell ref="AI134:AI139"/>
+    <mergeCell ref="AD51:AD73"/>
+    <mergeCell ref="Y51:Y73"/>
+    <mergeCell ref="Y74:Y75"/>
+    <mergeCell ref="Y76:Y105"/>
+    <mergeCell ref="Y107:Y118"/>
+    <mergeCell ref="Y119:Y133"/>
+    <mergeCell ref="Y134:Y139"/>
+    <mergeCell ref="AD74:AD75"/>
+    <mergeCell ref="AD76:AD105"/>
+    <mergeCell ref="AD107:AD118"/>
+    <mergeCell ref="AD119:AD133"/>
+    <mergeCell ref="AD134:AD139"/>
+    <mergeCell ref="J107:J118"/>
+    <mergeCell ref="J119:J133"/>
+    <mergeCell ref="J134:J139"/>
+    <mergeCell ref="AI74:AI75"/>
+    <mergeCell ref="AI76:AI105"/>
+    <mergeCell ref="AI107:AI118"/>
+    <mergeCell ref="O51:O73"/>
+    <mergeCell ref="O74:O75"/>
+    <mergeCell ref="O76:O105"/>
+    <mergeCell ref="O107:O118"/>
+    <mergeCell ref="O119:O133"/>
+    <mergeCell ref="Y140:Y145"/>
+    <mergeCell ref="Y146:Y150"/>
+    <mergeCell ref="Y151:Y166"/>
+    <mergeCell ref="AD151:AD166"/>
+    <mergeCell ref="O134:O139"/>
+    <mergeCell ref="T4:T9"/>
+    <mergeCell ref="T10:T32"/>
+    <mergeCell ref="T74:T75"/>
+    <mergeCell ref="T76:T105"/>
+    <mergeCell ref="T107:T118"/>
+    <mergeCell ref="T119:T133"/>
+    <mergeCell ref="T134:T139"/>
+    <mergeCell ref="T140:T145"/>
+    <mergeCell ref="T146:T150"/>
+    <mergeCell ref="T51:T73"/>
+    <mergeCell ref="AD140:AD145"/>
+    <mergeCell ref="AD146:AD150"/>
+    <mergeCell ref="AI140:AI145"/>
+    <mergeCell ref="AI146:AI150"/>
+    <mergeCell ref="AI151:AI166"/>
+    <mergeCell ref="AI119:AI133"/>
+    <mergeCell ref="O140:O145"/>
+    <mergeCell ref="O146:O150"/>
+    <mergeCell ref="O151:O166"/>
+    <mergeCell ref="T151:T166"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
